--- a/SUMMARY DATA SOURCE.xlsx
+++ b/SUMMARY DATA SOURCE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\Desktop\VS CODE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC6063E-CC56-4C7C-9389-B3CDCC1D418C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F227B9C8-ACE9-4BC7-AE80-0E874AC2A96C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -460,8 +460,8 @@
   </sheetPr>
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/SUMMARY DATA SOURCE.xlsx
+++ b/SUMMARY DATA SOURCE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\Desktop\VS CODE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F227B9C8-ACE9-4BC7-AE80-0E874AC2A96C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26AB3CB2-EC01-4B61-99E7-EF215C79AFE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -460,8 +460,8 @@
   </sheetPr>
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -516,7 +516,7 @@
         <v>2018</v>
       </c>
       <c r="D2" s="8" t="str">
-        <f t="shared" ref="D2:D61" si="0">B2&amp;" "&amp;C2</f>
+        <f>B2&amp;" "&amp;C2</f>
         <v>Januari 2018</v>
       </c>
       <c r="E2" s="8">
@@ -546,7 +546,7 @@
         <v>2018</v>
       </c>
       <c r="D3" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>B3&amp;" "&amp;C3</f>
         <v>Februari 2018</v>
       </c>
       <c r="E3" s="8">
@@ -576,7 +576,7 @@
         <v>2018</v>
       </c>
       <c r="D4" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>B4&amp;" "&amp;C4</f>
         <v>Maret 2018</v>
       </c>
       <c r="E4" s="8">
@@ -606,7 +606,7 @@
         <v>2018</v>
       </c>
       <c r="D5" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>B5&amp;" "&amp;C5</f>
         <v>April 2018</v>
       </c>
       <c r="E5" s="8">
@@ -636,7 +636,7 @@
         <v>2018</v>
       </c>
       <c r="D6" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>B6&amp;" "&amp;C6</f>
         <v>Mei 2018</v>
       </c>
       <c r="E6" s="8">
@@ -666,7 +666,7 @@
         <v>2018</v>
       </c>
       <c r="D7" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>B7&amp;" "&amp;C7</f>
         <v>Juni 2018</v>
       </c>
       <c r="E7" s="8">
@@ -696,7 +696,7 @@
         <v>2018</v>
       </c>
       <c r="D8" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>B8&amp;" "&amp;C8</f>
         <v>Juli 2018</v>
       </c>
       <c r="E8" s="8">
@@ -726,7 +726,7 @@
         <v>2018</v>
       </c>
       <c r="D9" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>B9&amp;" "&amp;C9</f>
         <v>Agustus 2018</v>
       </c>
       <c r="E9" s="8">
@@ -756,7 +756,7 @@
         <v>2018</v>
       </c>
       <c r="D10" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>B10&amp;" "&amp;C10</f>
         <v>September 2018</v>
       </c>
       <c r="E10" s="8">
@@ -786,7 +786,7 @@
         <v>2018</v>
       </c>
       <c r="D11" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>B11&amp;" "&amp;C11</f>
         <v>Oktober 2018</v>
       </c>
       <c r="E11" s="8">
@@ -816,7 +816,7 @@
         <v>2018</v>
       </c>
       <c r="D12" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>B12&amp;" "&amp;C12</f>
         <v>November 2018</v>
       </c>
       <c r="E12" s="8">
@@ -846,7 +846,7 @@
         <v>2018</v>
       </c>
       <c r="D13" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>B13&amp;" "&amp;C13</f>
         <v>Desember 2018</v>
       </c>
       <c r="E13" s="8">
@@ -876,7 +876,7 @@
         <v>2019</v>
       </c>
       <c r="D14" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>B14&amp;" "&amp;C14</f>
         <v>Januari 2019</v>
       </c>
       <c r="E14" s="8">
@@ -906,7 +906,7 @@
         <v>2019</v>
       </c>
       <c r="D15" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>B15&amp;" "&amp;C15</f>
         <v>Februari 2019</v>
       </c>
       <c r="E15" s="8">
@@ -936,7 +936,7 @@
         <v>2019</v>
       </c>
       <c r="D16" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>B16&amp;" "&amp;C16</f>
         <v>Maret 2019</v>
       </c>
       <c r="E16" s="8">
@@ -966,7 +966,7 @@
         <v>2019</v>
       </c>
       <c r="D17" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>B17&amp;" "&amp;C17</f>
         <v>April 2019</v>
       </c>
       <c r="E17" s="8">
@@ -996,7 +996,7 @@
         <v>2019</v>
       </c>
       <c r="D18" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>B18&amp;" "&amp;C18</f>
         <v>Mei 2019</v>
       </c>
       <c r="E18" s="8">
@@ -1026,7 +1026,7 @@
         <v>2019</v>
       </c>
       <c r="D19" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>B19&amp;" "&amp;C19</f>
         <v>Juni 2019</v>
       </c>
       <c r="E19" s="8">
@@ -1056,7 +1056,7 @@
         <v>2019</v>
       </c>
       <c r="D20" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>B20&amp;" "&amp;C20</f>
         <v>Juli 2019</v>
       </c>
       <c r="E20" s="8">
@@ -1086,7 +1086,7 @@
         <v>2019</v>
       </c>
       <c r="D21" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>B21&amp;" "&amp;C21</f>
         <v>Agustus 2019</v>
       </c>
       <c r="E21" s="8">
@@ -1116,7 +1116,7 @@
         <v>2019</v>
       </c>
       <c r="D22" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>B22&amp;" "&amp;C22</f>
         <v>September 2019</v>
       </c>
       <c r="E22" s="8">
@@ -1146,7 +1146,7 @@
         <v>2019</v>
       </c>
       <c r="D23" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>B23&amp;" "&amp;C23</f>
         <v>Oktober 2019</v>
       </c>
       <c r="E23" s="8">
@@ -1176,7 +1176,7 @@
         <v>2019</v>
       </c>
       <c r="D24" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>B24&amp;" "&amp;C24</f>
         <v>November 2019</v>
       </c>
       <c r="E24" s="8">
@@ -1206,7 +1206,7 @@
         <v>2019</v>
       </c>
       <c r="D25" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>B25&amp;" "&amp;C25</f>
         <v>Desember 2019</v>
       </c>
       <c r="E25" s="8">
@@ -1236,7 +1236,7 @@
         <v>2020</v>
       </c>
       <c r="D26" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>B26&amp;" "&amp;C26</f>
         <v>Januari 2020</v>
       </c>
       <c r="E26" s="8">
@@ -1266,7 +1266,7 @@
         <v>2020</v>
       </c>
       <c r="D27" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>B27&amp;" "&amp;C27</f>
         <v>Februari 2020</v>
       </c>
       <c r="E27" s="8">
@@ -1296,7 +1296,7 @@
         <v>2020</v>
       </c>
       <c r="D28" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>B28&amp;" "&amp;C28</f>
         <v>Maret 2020</v>
       </c>
       <c r="E28" s="8">
@@ -1326,7 +1326,7 @@
         <v>2020</v>
       </c>
       <c r="D29" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>B29&amp;" "&amp;C29</f>
         <v>April 2020</v>
       </c>
       <c r="E29" s="8">
@@ -1356,7 +1356,7 @@
         <v>2020</v>
       </c>
       <c r="D30" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>B30&amp;" "&amp;C30</f>
         <v>Mei 2020</v>
       </c>
       <c r="E30" s="8">
@@ -1386,7 +1386,7 @@
         <v>2020</v>
       </c>
       <c r="D31" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>B31&amp;" "&amp;C31</f>
         <v>Juni 2020</v>
       </c>
       <c r="E31" s="8">
@@ -1416,7 +1416,7 @@
         <v>2020</v>
       </c>
       <c r="D32" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>B32&amp;" "&amp;C32</f>
         <v>Juli 2020</v>
       </c>
       <c r="E32" s="8">
@@ -1446,7 +1446,7 @@
         <v>2020</v>
       </c>
       <c r="D33" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>B33&amp;" "&amp;C33</f>
         <v>Agustus 2020</v>
       </c>
       <c r="E33" s="8">
@@ -1476,7 +1476,7 @@
         <v>2020</v>
       </c>
       <c r="D34" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>B34&amp;" "&amp;C34</f>
         <v>September 2020</v>
       </c>
       <c r="E34" s="8">
@@ -1506,7 +1506,7 @@
         <v>2020</v>
       </c>
       <c r="D35" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>B35&amp;" "&amp;C35</f>
         <v>Oktober 2020</v>
       </c>
       <c r="E35" s="8">
@@ -1536,7 +1536,7 @@
         <v>2020</v>
       </c>
       <c r="D36" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>B36&amp;" "&amp;C36</f>
         <v>November 2020</v>
       </c>
       <c r="E36" s="8">
@@ -1566,7 +1566,7 @@
         <v>2020</v>
       </c>
       <c r="D37" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>B37&amp;" "&amp;C37</f>
         <v>Desember 2020</v>
       </c>
       <c r="E37" s="8">
@@ -1596,7 +1596,7 @@
         <v>2021</v>
       </c>
       <c r="D38" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>B38&amp;" "&amp;C38</f>
         <v>Januari 2021</v>
       </c>
       <c r="E38" s="8">
@@ -1626,7 +1626,7 @@
         <v>2021</v>
       </c>
       <c r="D39" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>B39&amp;" "&amp;C39</f>
         <v>Februari 2021</v>
       </c>
       <c r="E39" s="8">
@@ -1656,7 +1656,7 @@
         <v>2021</v>
       </c>
       <c r="D40" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>B40&amp;" "&amp;C40</f>
         <v>Maret 2021</v>
       </c>
       <c r="E40" s="8">
@@ -1686,7 +1686,7 @@
         <v>2021</v>
       </c>
       <c r="D41" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>B41&amp;" "&amp;C41</f>
         <v>April 2021</v>
       </c>
       <c r="E41" s="8">
@@ -1716,7 +1716,7 @@
         <v>2021</v>
       </c>
       <c r="D42" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>B42&amp;" "&amp;C42</f>
         <v>Mei 2021</v>
       </c>
       <c r="E42" s="8">
@@ -1746,7 +1746,7 @@
         <v>2021</v>
       </c>
       <c r="D43" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>B43&amp;" "&amp;C43</f>
         <v>Juni 2021</v>
       </c>
       <c r="E43" s="8">
@@ -1776,7 +1776,7 @@
         <v>2021</v>
       </c>
       <c r="D44" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>B44&amp;" "&amp;C44</f>
         <v>Juli 2021</v>
       </c>
       <c r="E44" s="8">
@@ -1806,7 +1806,7 @@
         <v>2021</v>
       </c>
       <c r="D45" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>B45&amp;" "&amp;C45</f>
         <v>Agustus 2021</v>
       </c>
       <c r="E45" s="8">
@@ -1836,7 +1836,7 @@
         <v>2021</v>
       </c>
       <c r="D46" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>B46&amp;" "&amp;C46</f>
         <v>September 2021</v>
       </c>
       <c r="E46" s="8">
@@ -1866,7 +1866,7 @@
         <v>2021</v>
       </c>
       <c r="D47" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>B47&amp;" "&amp;C47</f>
         <v>Oktober 2021</v>
       </c>
       <c r="E47" s="8">
@@ -1896,7 +1896,7 @@
         <v>2021</v>
       </c>
       <c r="D48" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>B48&amp;" "&amp;C48</f>
         <v>November 2021</v>
       </c>
       <c r="E48" s="8">
@@ -1926,7 +1926,7 @@
         <v>2021</v>
       </c>
       <c r="D49" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>B49&amp;" "&amp;C49</f>
         <v>Desember 2021</v>
       </c>
       <c r="E49" s="8">
@@ -1956,7 +1956,7 @@
         <v>2022</v>
       </c>
       <c r="D50" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>B50&amp;" "&amp;C50</f>
         <v>Januari 2022</v>
       </c>
       <c r="E50" s="8">
@@ -1986,7 +1986,7 @@
         <v>2022</v>
       </c>
       <c r="D51" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>B51&amp;" "&amp;C51</f>
         <v>Februari 2022</v>
       </c>
       <c r="E51" s="8">
@@ -2016,7 +2016,7 @@
         <v>2022</v>
       </c>
       <c r="D52" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>B52&amp;" "&amp;C52</f>
         <v>Maret 2022</v>
       </c>
       <c r="E52" s="8">
@@ -2046,7 +2046,7 @@
         <v>2022</v>
       </c>
       <c r="D53" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>B53&amp;" "&amp;C53</f>
         <v>April 2022</v>
       </c>
       <c r="E53" s="8">
@@ -2076,7 +2076,7 @@
         <v>2022</v>
       </c>
       <c r="D54" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>B54&amp;" "&amp;C54</f>
         <v>Mei 2022</v>
       </c>
       <c r="E54" s="8">
@@ -2106,7 +2106,7 @@
         <v>2022</v>
       </c>
       <c r="D55" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>B55&amp;" "&amp;C55</f>
         <v>Juni 2022</v>
       </c>
       <c r="E55" s="8">
@@ -2136,7 +2136,7 @@
         <v>2022</v>
       </c>
       <c r="D56" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>B56&amp;" "&amp;C56</f>
         <v>Juli 2022</v>
       </c>
       <c r="E56" s="8">
@@ -2166,7 +2166,7 @@
         <v>2022</v>
       </c>
       <c r="D57" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>B57&amp;" "&amp;C57</f>
         <v>Agustus 2022</v>
       </c>
       <c r="E57" s="8">
@@ -2196,7 +2196,7 @@
         <v>2022</v>
       </c>
       <c r="D58" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>B58&amp;" "&amp;C58</f>
         <v>September 2022</v>
       </c>
       <c r="E58" s="8">
@@ -2226,7 +2226,7 @@
         <v>2022</v>
       </c>
       <c r="D59" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>B59&amp;" "&amp;C59</f>
         <v>Oktober 2022</v>
       </c>
       <c r="E59" s="8">
@@ -2256,7 +2256,7 @@
         <v>2022</v>
       </c>
       <c r="D60" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>B60&amp;" "&amp;C60</f>
         <v>November 2022</v>
       </c>
       <c r="E60" s="8">
@@ -2286,7 +2286,7 @@
         <v>2022</v>
       </c>
       <c r="D61" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>B61&amp;" "&amp;C61</f>
         <v>Desember 2022</v>
       </c>
       <c r="E61" s="8">
